--- a/output/fit_clients/fit_round_356.xlsx
+++ b/output/fit_clients/fit_round_356.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2105706679.537519</v>
+        <v>2164637213.911994</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08250331736256929</v>
+        <v>0.1074947444791449</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02748121455924537</v>
+        <v>0.0389461019373994</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1052853349.604823</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2552453943.785906</v>
+        <v>2162369791.563651</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1804390262009289</v>
+        <v>0.1518300434183447</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03902230810347573</v>
+        <v>0.04970706831250398</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1276227097.524689</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3195896313.68056</v>
+        <v>3841237113.602395</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1186789660188153</v>
+        <v>0.1232697423031853</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03275347477151593</v>
+        <v>0.02534627973947383</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>128</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1597948114.054732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3500889769.868652</v>
+        <v>2755330080.297778</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07981334901834923</v>
+        <v>0.1051803323619984</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04746549166409036</v>
+        <v>0.03337476628884405</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>131</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1750444921.68847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2574633485.691139</v>
+        <v>2280854405.916596</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1195965155233392</v>
+        <v>0.09035221649915477</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05350826597890937</v>
+        <v>0.04537505043342153</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>67</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1287316710.259257</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2479662280.628453</v>
+        <v>1987071896.191382</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07228060438403046</v>
+        <v>0.06376439538214156</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04102924537743663</v>
+        <v>0.03947660150315078</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>111</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1239831155.313865</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3766841294.763253</v>
+        <v>2541239163.497193</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1422178233208906</v>
+        <v>0.1630183346547608</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03079184638039999</v>
+        <v>0.03276460360950897</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>114</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1883420783.29642</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1430175487.077076</v>
+        <v>2157862744.535896</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1746808700186158</v>
+        <v>0.1874439172813608</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03563708628070901</v>
+        <v>0.03113215926583865</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>715087849.2170109</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5546347177.613285</v>
+        <v>5905902834.990172</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1620433863693259</v>
+        <v>0.1565793085872469</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04006347536636259</v>
+        <v>0.04067671624904397</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>150</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2773173730.416292</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3663705588.077673</v>
+        <v>2932860131.704803</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1698541013870073</v>
+        <v>0.1865215078575289</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03146023514967514</v>
+        <v>0.03462393417768784</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>147</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1831852783.245084</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2315985136.330378</v>
+        <v>2384925267.523884</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1756405643055923</v>
+        <v>0.1359393830661765</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05041369421721605</v>
+        <v>0.04907408963907368</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>122</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1157992523.564079</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4241771489.319408</v>
+        <v>4200745402.261502</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08138180889003711</v>
+        <v>0.07759073933466927</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02057734229616039</v>
+        <v>0.02897990919505627</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>120</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2120885787.317588</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3057045746.361937</v>
+        <v>2552075683.299554</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1324321764796227</v>
+        <v>0.1292965583696544</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03575291777028861</v>
+        <v>0.03925547706708291</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>118</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1528522903.494642</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1777213592.198228</v>
+        <v>1536218534.56964</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07613340638785498</v>
+        <v>0.1055716246541832</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04740780741217399</v>
+        <v>0.029803010119943</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>888606944.4617507</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2326739969.125793</v>
+        <v>2193625054.389714</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09941907199788444</v>
+        <v>0.09121517853413859</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04216921335617424</v>
+        <v>0.03931864114746625</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>72</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1163370030.870092</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3392398482.676961</v>
+        <v>4549785240.62724</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1332505933332924</v>
+        <v>0.1243421219024249</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04757558850874005</v>
+        <v>0.03577722326798276</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>104</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1696199305.934672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3703728946.619376</v>
+        <v>3271962710.79277</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1549818101444473</v>
+        <v>0.1614384649446048</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0221235494076266</v>
+        <v>0.03131322123358618</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>117</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1851864452.678111</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1046512762.568954</v>
+        <v>1002402901.731656</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1337285950018411</v>
+        <v>0.1844466599301899</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01749072481912681</v>
+        <v>0.02035596089940254</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>523256421.8846372</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2250125401.089769</v>
+        <v>2192495249.140562</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1430755863459963</v>
+        <v>0.1078879485548332</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0212846159880324</v>
+        <v>0.02783680784656342</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>46</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1125062700.268416</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2508003100.529562</v>
+        <v>1770769093.985143</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09096169688582897</v>
+        <v>0.09114446357123078</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03946232950133285</v>
+        <v>0.04495082682697187</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>29</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1254001537.653927</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2779179585.259675</v>
+        <v>2876692537.114907</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1364874883892389</v>
+        <v>0.102469003719823</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04335059271594403</v>
+        <v>0.05009101828700256</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>98</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1389589867.394809</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1264955743.370094</v>
+        <v>966045372.2382489</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1230349444976193</v>
+        <v>0.1476955358439716</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0342290774944025</v>
+        <v>0.04897254201938673</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>632477897.2329599</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3636216120.978273</v>
+        <v>2820666918.855153</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1429725489517964</v>
+        <v>0.1058987181487787</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02399244636639052</v>
+        <v>0.03607577853440989</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>104</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1818108052.952089</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1103125008.129538</v>
+        <v>1187259907.238305</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08382422297545289</v>
+        <v>0.09996351545563897</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02052313475431229</v>
+        <v>0.01882228377734722</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>551562544.3515111</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1090177511.917503</v>
+        <v>1227026941.043365</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08672431517280706</v>
+        <v>0.1083056925715097</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03486768155539493</v>
+        <v>0.03868888497008346</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>545088750.1732684</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3329026764.174584</v>
+        <v>4243562516.213439</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1354498811031588</v>
+        <v>0.1188178778838965</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02012476674210444</v>
+        <v>0.02371766870934256</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1664513425.604525</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2667894250.118587</v>
+        <v>3684924633.486689</v>
       </c>
       <c r="F28" t="n">
-        <v>0.132276209909735</v>
+        <v>0.1367713142909213</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03753374053149051</v>
+        <v>0.03188778011827538</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>115</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1333947107.465733</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4856448853.242249</v>
+        <v>3573964713.094393</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1087991693681185</v>
+        <v>0.1180429547448135</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04214155115226745</v>
+        <v>0.03335188245911459</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>157</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2428224384.10503</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1521777114.398726</v>
+        <v>1720563156.588548</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1249564395221889</v>
+        <v>0.1107036322152805</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02829585533068163</v>
+        <v>0.02941466660726856</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>760888540.1861348</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1305772908.837665</v>
+        <v>1298127534.296364</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09156649654153146</v>
+        <v>0.08155438741953115</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04421550893758411</v>
+        <v>0.04341531892671382</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>652886380.999328</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1780895253.650707</v>
+        <v>1854999776.939441</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1159794296462629</v>
+        <v>0.09506815620454477</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03204460993303598</v>
+        <v>0.03842216442637778</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>890447753.3691732</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2356536401.422835</v>
+        <v>2877395267.214108</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2031951390956734</v>
+        <v>0.1412961618748567</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0378508217565228</v>
+        <v>0.03845455582752413</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>107</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1178268251.169784</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1124434386.398438</v>
+        <v>1363432847.503929</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08436793125074149</v>
+        <v>0.08851458419036079</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02659298028913639</v>
+        <v>0.02720765161445698</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>562217210.699312</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1307232313.671496</v>
+        <v>1036117665.198494</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07131176103060451</v>
+        <v>0.1171398612532521</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02811093867886674</v>
+        <v>0.03154283479778636</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>653616108.0477878</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2775907617.538069</v>
+        <v>3007056151.12491</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1342722719426991</v>
+        <v>0.1162033066722366</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02009943383737268</v>
+        <v>0.02069543893680925</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>90</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1387953808.649084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2239003700.00234</v>
+        <v>2595645762.92423</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06940967814827431</v>
+        <v>0.06976413872077267</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04032790168698185</v>
+        <v>0.03742669661691413</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>93</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1119501910.153879</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1987531690.58178</v>
+        <v>1536120728.193698</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1125696250480011</v>
+        <v>0.1066480280599367</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03439650352599085</v>
+        <v>0.036764615270066</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>993765825.6860641</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2073504254.014184</v>
+        <v>1544769654.076744</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1249036232381153</v>
+        <v>0.1919243676957667</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03098237899194042</v>
+        <v>0.03067799484980363</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1036752110.380879</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1258820763.168566</v>
+        <v>1104906768.499654</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09848330053666508</v>
+        <v>0.1026799541628054</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05487582392528242</v>
+        <v>0.05584647656907418</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>629410408.1631465</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2889773038.604169</v>
+        <v>1796208787.080847</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1525650363999668</v>
+        <v>0.1444627128625665</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04587140721935138</v>
+        <v>0.04733939951900144</v>
       </c>
       <c r="H41" t="b">
         <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>90</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1444886506.478352</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3147150745.886674</v>
+        <v>2631581095.563516</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1231217585854601</v>
+        <v>0.1230818684821365</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03304358650281072</v>
+        <v>0.0433909311163039</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>116</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1573575343.515257</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2633645359.367499</v>
+        <v>2142099515.592665</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1334861214057042</v>
+        <v>0.2048063304931475</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01655181557520182</v>
+        <v>0.01948087961047658</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>126</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1316822714.923836</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2323053429.94822</v>
+        <v>1904241803.378142</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1019658624921097</v>
+        <v>0.09301100493423822</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03597010669846545</v>
+        <v>0.02454719436628134</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1161526885.78155</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1953229037.603546</v>
+        <v>1533791025.560826</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1826458854026168</v>
+        <v>0.1828119363974865</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05127689366270789</v>
+        <v>0.0375644757575151</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>976614504.938976</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3703345450.525199</v>
+        <v>4768914431.961087</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1181577025675419</v>
+        <v>0.1476300233277333</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05783917732668727</v>
+        <v>0.05067985910557473</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>126</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1851672677.859181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3877914196.930778</v>
+        <v>4558725492.294378</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1487579670766509</v>
+        <v>0.1644985760466094</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05518195370947149</v>
+        <v>0.04561136096528321</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>95</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1938957090.698249</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3204014117.932927</v>
+        <v>3202746390.505069</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1091168118812655</v>
+        <v>0.0781358688064174</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02645471024463417</v>
+        <v>0.02820073021874192</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>117</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1602007139.587509</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1472648147.264405</v>
+        <v>1905398978.776392</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1627909246113501</v>
+        <v>0.1657368721526341</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04269091779803029</v>
+        <v>0.03702619446036014</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>736324109.9260956</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3458596050.453394</v>
+        <v>3689689417.450733</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1280375426112274</v>
+        <v>0.1478895101031808</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03675179679226869</v>
+        <v>0.05254348724805971</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>122</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1729298052.426962</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1198685795.647799</v>
+        <v>1280415464.658254</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1227645068435386</v>
+        <v>0.1706020736905057</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04137738776226392</v>
+        <v>0.04067078402890775</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>599342949.6052567</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4960233589.415565</v>
+        <v>4505609555.096664</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1323475994114119</v>
+        <v>0.1244310312188192</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04882254073384257</v>
+        <v>0.03884690882085142</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>147</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2480116794.680336</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2388544673.029838</v>
+        <v>3111938387.125905</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1853950524259668</v>
+        <v>0.1849423024684048</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02888492286957915</v>
+        <v>0.03540455166965444</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>104</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1194272411.210131</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4853593314.030594</v>
+        <v>3936605064.170373</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1069856911811</v>
+        <v>0.11384740852695</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04543611800158111</v>
+        <v>0.05165878267876464</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>116</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2426796788.144175</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4484193456.387162</v>
+        <v>4130738275.040801</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1559213389707109</v>
+        <v>0.211636852562608</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02927679165697341</v>
+        <v>0.02781977172846671</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2242096724.480172</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1885034478.096634</v>
+        <v>1396300775.20595</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1191703140343346</v>
+        <v>0.1216738987753843</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05544986988208923</v>
+        <v>0.03922317828029866</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>942517224.2731316</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4213371575.825784</v>
+        <v>2791557366.045002</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1395860443273668</v>
+        <v>0.1516386451650595</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02734620353742533</v>
+        <v>0.01913381160788986</v>
       </c>
       <c r="H57" t="b">
         <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>113</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2106685894.20603</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1424099939.940701</v>
+        <v>1756016690.85528</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2001412249336201</v>
+        <v>0.1999930526854828</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03698881697428565</v>
+        <v>0.03907064074936201</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>712050008.0377349</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3856359987.708699</v>
+        <v>3968340269.757708</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08348437186786223</v>
+        <v>0.09565395407652734</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03930937478248642</v>
+        <v>0.03173020797549816</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>100</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1928179976.724435</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3093915103.767932</v>
+        <v>2407713373.842296</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1656802953949121</v>
+        <v>0.1273526694142634</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02020608711110595</v>
+        <v>0.02568620161724848</v>
       </c>
       <c r="H60" t="b">
         <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>110</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1546957632.095403</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3203035676.711204</v>
+        <v>2195430670.922456</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1267467512996187</v>
+        <v>0.1540068140328258</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02798495902198512</v>
+        <v>0.02607505766801797</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>122</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1601517799.683355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1960731807.995847</v>
+        <v>1528242560.557187</v>
       </c>
       <c r="F62" t="n">
-        <v>0.123571187337426</v>
+        <v>0.1782047288147244</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04671183999264802</v>
+        <v>0.04976250841785249</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>980365956.1965196</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5486542794.211926</v>
+        <v>3683663970.619807</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06533950411192523</v>
+        <v>0.06839861755479079</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04609480277623342</v>
+        <v>0.0405986753997671</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>103</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2743271393.196243</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4718242983.623757</v>
+        <v>4890184446.810878</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1526841640684697</v>
+        <v>0.1459575022219287</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02820404148858291</v>
+        <v>0.02603542907082744</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>111</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2359121578.199492</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3974834344.647133</v>
+        <v>5767449998.029793</v>
       </c>
       <c r="F65" t="n">
-        <v>0.14999348910323</v>
+        <v>0.1139819396164309</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02926050588438858</v>
+        <v>0.03066599542304338</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>128</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1987417192.426203</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5667287709.571005</v>
+        <v>4720274198.182116</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1391276041416387</v>
+        <v>0.1225247236742069</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04250803488482711</v>
+        <v>0.04983866749475563</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>104</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2833643917.706011</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3030958168.297125</v>
+        <v>2869441341.421111</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07890891463930137</v>
+        <v>0.08983433688669444</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03200102084358745</v>
+        <v>0.03898107811145656</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>114</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1515479099.768304</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5131264363.972482</v>
+        <v>5779008920.559969</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1220270856832919</v>
+        <v>0.1489500018768026</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04800948260456761</v>
+        <v>0.03232462595250889</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>114</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2565632246.335955</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1776400596.134995</v>
+        <v>2253657199.016065</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1144789749345523</v>
+        <v>0.1531252525233075</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03668875976581349</v>
+        <v>0.04663801624642366</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>888200274.1013492</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2334092906.743738</v>
+        <v>3381174769.524164</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08544213446147528</v>
+        <v>0.09445896397121861</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04703372637558392</v>
+        <v>0.04132465272362552</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>102</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1167046387.012558</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3663689300.016542</v>
+        <v>3707586363.479365</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1578194059240023</v>
+        <v>0.1122683671791307</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0260218780092514</v>
+        <v>0.03051088673695504</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>130</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1831844655.965414</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1772981918.284494</v>
+        <v>1383219827.04766</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1071666742604404</v>
+        <v>0.06744812551695262</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04287819573125916</v>
+        <v>0.04482175249142171</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>886490942.126134</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3061568770.726063</v>
+        <v>2166706142.0541</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1071223891813077</v>
+        <v>0.1054594347879852</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04493928362871009</v>
+        <v>0.0517398853825259</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>135</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1530784375.697279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2515490869.232069</v>
+        <v>3301073077.808619</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1674553714096412</v>
+        <v>0.1171193328809832</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03206513280873453</v>
+        <v>0.02576690281944135</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>122</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1257745541.879057</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1580985661.824255</v>
+        <v>2007896893.861131</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1637045142034368</v>
+        <v>0.1017477005255919</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02556181535398733</v>
+        <v>0.02386495761323723</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>790492834.3575195</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4359631534.501078</v>
+        <v>3929604710.894545</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1094249787702579</v>
+        <v>0.1120126275307838</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02234230874824064</v>
+        <v>0.02545170492341526</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>83</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2179815767.028377</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2308165899.487913</v>
+        <v>1540153227.033364</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1743443935756235</v>
+        <v>0.1303556073678702</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0306787140298787</v>
+        <v>0.02881503400295985</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1154083056.762694</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3032589856.625638</v>
+        <v>4640833866.924805</v>
       </c>
       <c r="F78" t="n">
-        <v>0.118446717861908</v>
+        <v>0.1169117215723856</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04869213054806781</v>
+        <v>0.05232092615356372</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>124</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1516294963.26395</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1422321346.414649</v>
+        <v>1375636147.259617</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1679178048443801</v>
+        <v>0.1093589651690319</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02602698321702882</v>
+        <v>0.02923864236966018</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>711160693.8555126</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3930617828.181435</v>
+        <v>3616353731.844258</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07090909310086622</v>
+        <v>0.07639899861782919</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0265364314251532</v>
+        <v>0.03307190282534193</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>77</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1965308910.118054</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3997591581.130495</v>
+        <v>3805422864.291444</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1136927937459867</v>
+        <v>0.08572589072814267</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02077162375932184</v>
+        <v>0.02162916518784192</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>79</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1998795753.708372</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4519940024.000941</v>
+        <v>4783430801.064988</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1889929505054979</v>
+        <v>0.2057931147923879</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01977650337381583</v>
+        <v>0.01968713756596946</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>125</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2259970022.764276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1666347852.987882</v>
+        <v>2255212697.003118</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1035137823986021</v>
+        <v>0.1468425559604211</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02879728123748625</v>
+        <v>0.03902454743420659</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>833173870.2896094</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1641547122.979568</v>
+        <v>1740020458.151428</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07728990459027256</v>
+        <v>0.09520614623691112</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04901431412888706</v>
+        <v>0.03942131571722844</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>820773619.0480423</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2691270513.33405</v>
+        <v>2884541373.264969</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1693163478031268</v>
+        <v>0.1359667342786278</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04126209176747447</v>
+        <v>0.03726812110450486</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>134</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1345635282.744003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2721709758.348197</v>
+        <v>2440174699.085139</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1632547102299956</v>
+        <v>0.1287230494819535</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01697427907175792</v>
+        <v>0.02535891884162458</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>46</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1360855007.152794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1274424700.443201</v>
+        <v>1235985026.529685</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1255683583940286</v>
+        <v>0.1284877917249908</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03112032611335931</v>
+        <v>0.03906304618400033</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>637212424.8936787</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3468965782.721524</v>
+        <v>3147592875.320338</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1297445536384481</v>
+        <v>0.1228431583961501</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03447227159634343</v>
+        <v>0.02429111909975736</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>141</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1734482968.157513</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2330135909.283718</v>
+        <v>3505625673.20417</v>
       </c>
       <c r="F89" t="n">
-        <v>0.113535021492186</v>
+        <v>0.1262344387146159</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03740720862297398</v>
+        <v>0.03864144317070222</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>120</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1165068041.87677</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1768497370.558113</v>
+        <v>1881656807.045081</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1085229065255657</v>
+        <v>0.09121087293553795</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0462716929601699</v>
+        <v>0.03837457735076356</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>884248713.194482</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1291883859.21346</v>
+        <v>2012647809.359869</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1729290989226873</v>
+        <v>0.1610646862549856</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04967155025414539</v>
+        <v>0.04242025639290631</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>645941996.2634364</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2747972057.74661</v>
+        <v>2736335362.427344</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06954264157505353</v>
+        <v>0.09456604134072169</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0439660423451144</v>
+        <v>0.03139735607582069</v>
       </c>
       <c r="H92" t="b">
         <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>97</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1373986031.574482</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4647201056.679776</v>
+        <v>4888982736.267129</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1317214570339433</v>
+        <v>0.1204680828908485</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03433848855233444</v>
+        <v>0.04838567708630637</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>108</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2323600487.127087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1892442495.55736</v>
+        <v>1573241097.173865</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1326574396958121</v>
+        <v>0.1302786988758843</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03611691442549773</v>
+        <v>0.03271673045571234</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>946221232.1492321</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2545269281.143044</v>
+        <v>2278442608.147669</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1265862870559215</v>
+        <v>0.1165498170386669</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0351709619790313</v>
+        <v>0.0500082953025372</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>91</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1272634673.362234</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2035552676.417932</v>
+        <v>1720327946.265025</v>
       </c>
       <c r="F96" t="n">
-        <v>0.141635470094867</v>
+        <v>0.1231193551214284</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03410607370556959</v>
+        <v>0.03003194567960461</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1017776321.415514</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3416255833.861496</v>
+        <v>4991716917.345085</v>
       </c>
       <c r="F97" t="n">
-        <v>0.150311707603766</v>
+        <v>0.134922689636383</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0238203045284347</v>
+        <v>0.02921461049668163</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>114</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1708127926.368866</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3770521429.549984</v>
+        <v>3874166632.631068</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08696902398871452</v>
+        <v>0.1179129749143931</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02397052822330305</v>
+        <v>0.03039453593051049</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>97</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1885260751.721975</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2098786567.923407</v>
+        <v>2337973428.06393</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1053995234027363</v>
+        <v>0.1166436168459809</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02796137201382947</v>
+        <v>0.02263899276005912</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>111</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1049393204.635461</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3726727124.128948</v>
+        <v>3894236412.426042</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1327706917801767</v>
+        <v>0.1764198396251968</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02386464984389037</v>
+        <v>0.02594226680658448</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>110</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1863363610.918861</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2252529331.273116</v>
+        <v>2416595495.05727</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1636090630170956</v>
+        <v>0.1952192112446332</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04767428446575112</v>
+        <v>0.04098673974433373</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>145</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1126264655.926776</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_356.xlsx
+++ b/output/fit_clients/fit_round_356.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2164637213.911994</v>
+        <v>1981602704.136529</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1074947444791449</v>
+        <v>0.08812598149231395</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0389461019373994</v>
+        <v>0.03672387963290559</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2162369791.563651</v>
+        <v>2371985524.021127</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1518300434183447</v>
+        <v>0.1707724903215865</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04970706831250398</v>
+        <v>0.04787836449825122</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3841237113.602395</v>
+        <v>4983836145.945263</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1232697423031853</v>
+        <v>0.123224055991258</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02534627973947383</v>
+        <v>0.02605825972641451</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2755330080.297778</v>
+        <v>3948994071.236539</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1051803323619984</v>
+        <v>0.0801915251426813</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03337476628884405</v>
+        <v>0.03817879310823825</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2280854405.916596</v>
+        <v>2856932239.947421</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09035221649915477</v>
+        <v>0.1180942948268907</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04537505043342153</v>
+        <v>0.04537713997632546</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1987071896.191382</v>
+        <v>2246660321.972398</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06376439538214156</v>
+        <v>0.06866022042740537</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03947660150315078</v>
+        <v>0.03545288681920813</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2541239163.497193</v>
+        <v>3219886814.878512</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1630183346547608</v>
+        <v>0.1496474115195462</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03276460360950897</v>
+        <v>0.02115337970998069</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2157862744.535896</v>
+        <v>2161394508.022835</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1874439172813608</v>
+        <v>0.1727834658798522</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03113215926583865</v>
+        <v>0.02716592362738793</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5905902834.990172</v>
+        <v>4875897788.484233</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1565793085872469</v>
+        <v>0.1842565606247936</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04067671624904397</v>
+        <v>0.03646778646348895</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2932860131.704803</v>
+        <v>3925839309.672327</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1865215078575289</v>
+        <v>0.1509876348527321</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03462393417768784</v>
+        <v>0.03010591572308361</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2384925267.523884</v>
+        <v>2461140363.813091</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1359393830661765</v>
+        <v>0.1924611209479318</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04907408963907368</v>
+        <v>0.0346620719548676</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4200745402.261502</v>
+        <v>4497255296.037238</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07759073933466927</v>
+        <v>0.08786628034886264</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02897990919505627</v>
+        <v>0.02327900142700879</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2552075683.299554</v>
+        <v>3215599249.142647</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1292965583696544</v>
+        <v>0.1172533755360701</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03925547706708291</v>
+        <v>0.03163950911926587</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1536218534.56964</v>
+        <v>1235116161.601898</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1055716246541832</v>
+        <v>0.1010445567002518</v>
       </c>
       <c r="G15" t="n">
-        <v>0.029803010119943</v>
+        <v>0.03158044967562136</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2193625054.389714</v>
+        <v>2192902739.856184</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09121517853413859</v>
+        <v>0.1101565762757098</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03931864114746625</v>
+        <v>0.04372597393123578</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4549785240.62724</v>
+        <v>3390858233.469671</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1243421219024249</v>
+        <v>0.1190352200714588</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03577722326798276</v>
+        <v>0.03862077848961028</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,16 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3271962710.79277</v>
+        <v>3402997440.920758</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1614384649446048</v>
+        <v>0.1601718999567881</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03131322123358618</v>
+        <v>0.03075012914411505</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1002402901.731656</v>
+        <v>1019565076.929735</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1844466599301899</v>
+        <v>0.155882537427402</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02035596089940254</v>
+        <v>0.0237725533096523</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2192495249.140562</v>
+        <v>2053742140.712308</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1078879485548332</v>
+        <v>0.1456180440501049</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02783680784656342</v>
+        <v>0.01996145671244014</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1770769093.985143</v>
+        <v>1823370054.630671</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09114446357123078</v>
+        <v>0.0699295211344898</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04495082682697187</v>
+        <v>0.04440706036823005</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2876692537.114907</v>
+        <v>3541174025.802082</v>
       </c>
       <c r="F22" t="n">
-        <v>0.102469003719823</v>
+        <v>0.08765710093553301</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05009101828700256</v>
+        <v>0.0458292412561114</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>966045372.2382489</v>
+        <v>1346391832.669469</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1476955358439716</v>
+        <v>0.1189763207529284</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04897254201938673</v>
+        <v>0.0456920239984259</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2820666918.855153</v>
+        <v>3997932732.419034</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1058987181487787</v>
+        <v>0.1412780961733777</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03607577853440989</v>
+        <v>0.02407298048988147</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1187259907.238305</v>
+        <v>1136344039.174073</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09996351545563897</v>
+        <v>0.08467799562972154</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01882228377734722</v>
+        <v>0.02207004525847004</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1227026941.043365</v>
+        <v>1400409036.373367</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1083056925715097</v>
+        <v>0.1118845901185776</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03868888497008346</v>
+        <v>0.0363968319325902</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4243562516.213439</v>
+        <v>4090352925.163521</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1188178778838965</v>
+        <v>0.1020712394053726</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02371766870934256</v>
+        <v>0.02533640447566051</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3684924633.486689</v>
+        <v>2608967191.990942</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1367713142909213</v>
+        <v>0.105688089848782</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03188778011827538</v>
+        <v>0.04457625270919978</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3573964713.094393</v>
+        <v>5256287185.638912</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1180429547448135</v>
+        <v>0.1247409472272278</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03335188245911459</v>
+        <v>0.03414113207645465</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1720563156.588548</v>
+        <v>2087210269.879023</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1107036322152805</v>
+        <v>0.1208632034308946</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02941466660726856</v>
+        <v>0.02428614886037902</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1298127534.296364</v>
+        <v>1276820091.272219</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08155438741953115</v>
+        <v>0.08169970835403371</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04341531892671382</v>
+        <v>0.04483194762573153</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1854999776.939441</v>
+        <v>1473902228.079213</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09506815620454477</v>
+        <v>0.1157761114577634</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03842216442637778</v>
+        <v>0.02802447087700626</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2877395267.214108</v>
+        <v>2879018286.151511</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1412961618748567</v>
+        <v>0.1942078280969865</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03845455582752413</v>
+        <v>0.03972357851171091</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1363432847.503929</v>
+        <v>1001950015.919735</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08851458419036079</v>
+        <v>0.1120392691873368</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02720765161445698</v>
+        <v>0.02260814952367915</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1036117665.198494</v>
+        <v>1234433281.01446</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1171398612532521</v>
+        <v>0.1138944886314081</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03154283479778636</v>
+        <v>0.03565634801211203</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3007056151.12491</v>
+        <v>2252808035.188731</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1162033066722366</v>
+        <v>0.1613827977899963</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02069543893680925</v>
+        <v>0.02841380920711387</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2595645762.92423</v>
+        <v>2185621471.861797</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06976413872077267</v>
+        <v>0.1030709395514427</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03742669661691413</v>
+        <v>0.03812299938205915</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1536120728.193698</v>
+        <v>1539438405.716705</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1066480280599367</v>
+        <v>0.1032675121836533</v>
       </c>
       <c r="G38" t="n">
-        <v>0.036764615270066</v>
+        <v>0.0283925788348772</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1544769654.076744</v>
+        <v>1717180701.564415</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1919243676957667</v>
+        <v>0.1174969098511067</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03067799484980363</v>
+        <v>0.03188349719341871</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1104906768.499654</v>
+        <v>1525504271.682092</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1026799541628054</v>
+        <v>0.1099534111619017</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05584647656907418</v>
+        <v>0.05665387719778859</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1796208787.080847</v>
+        <v>2225214091.310324</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1444627128625665</v>
+        <v>0.1193767162783352</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04733939951900144</v>
+        <v>0.04244474287746904</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2631581095.563516</v>
+        <v>3127508144.707887</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1230818684821365</v>
+        <v>0.0975298378059023</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0433909311163039</v>
+        <v>0.04061426205104204</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2142099515.592665</v>
+        <v>2910924998.457675</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2048063304931475</v>
+        <v>0.1374208060480907</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01948087961047658</v>
+        <v>0.01627043697804658</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1904241803.378142</v>
+        <v>2168627666.733731</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09301100493423822</v>
+        <v>0.0817513574042731</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02454719436628134</v>
+        <v>0.02335869584077242</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1533791025.560826</v>
+        <v>1642582494.633986</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1828119363974865</v>
+        <v>0.1380512469636681</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0375644757575151</v>
+        <v>0.04510256422946547</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4768914431.961087</v>
+        <v>4637406611.930606</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1476300233277333</v>
+        <v>0.1095494580644885</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05067985910557473</v>
+        <v>0.05352154724760112</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4558725492.294378</v>
+        <v>3832432561.992902</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1644985760466094</v>
+        <v>0.1240662133280818</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04561136096528321</v>
+        <v>0.05477448091016459</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3202746390.505069</v>
+        <v>4109900233.573367</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0781358688064174</v>
+        <v>0.07340689567974691</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02820073021874192</v>
+        <v>0.03320090931506293</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1905398978.776392</v>
+        <v>1340341870.800828</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1657368721526341</v>
+        <v>0.1724656939450551</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03702619446036014</v>
+        <v>0.03209731049523944</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3689689417.450733</v>
+        <v>2605163791.715018</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1478895101031808</v>
+        <v>0.1438815028201096</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05254348724805971</v>
+        <v>0.04487957046652902</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1280415464.658254</v>
+        <v>1378918367.731917</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1706020736905057</v>
+        <v>0.1419309613927801</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04067078402890775</v>
+        <v>0.04209093354106668</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4505609555.096664</v>
+        <v>4137553920.770247</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1244310312188192</v>
+        <v>0.1080815558774706</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03884690882085142</v>
+        <v>0.0441292996390342</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3111938387.125905</v>
+        <v>3201537622.955855</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1849423024684048</v>
+        <v>0.1778686192227378</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03540455166965444</v>
+        <v>0.03071661968727284</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3936605064.170373</v>
+        <v>4716518159.026384</v>
       </c>
       <c r="F54" t="n">
-        <v>0.11384740852695</v>
+        <v>0.1022097540635405</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05165878267876464</v>
+        <v>0.0429222175702685</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4130738275.040801</v>
+        <v>4268472146.803765</v>
       </c>
       <c r="F55" t="n">
-        <v>0.211636852562608</v>
+        <v>0.1969659520038933</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02781977172846671</v>
+        <v>0.01982022471409923</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1396300775.20595</v>
+        <v>1568994399.115692</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1216738987753843</v>
+        <v>0.1035938115303467</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03922317828029866</v>
+        <v>0.05025748614129551</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2791557366.045002</v>
+        <v>4272835389.916674</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1516386451650595</v>
+        <v>0.1646224988953548</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01913381160788986</v>
+        <v>0.01815933661298922</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1756016690.85528</v>
+        <v>1632795510.226605</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1999930526854828</v>
+        <v>0.168478501118668</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03907064074936201</v>
+        <v>0.03058925290695767</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3968340269.757708</v>
+        <v>3757956053.262832</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09565395407652734</v>
+        <v>0.1029465032479113</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03173020797549816</v>
+        <v>0.04331242761905239</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2407713373.842296</v>
+        <v>2623186397.640703</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1273526694142634</v>
+        <v>0.1937301246993134</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02568620161724848</v>
+        <v>0.03322564272765745</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2195430670.922456</v>
+        <v>2779227191.421284</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1540068140328258</v>
+        <v>0.1354644437330021</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02607505766801797</v>
+        <v>0.03072615970865007</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1528242560.557187</v>
+        <v>2083059197.927448</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1782047288147244</v>
+        <v>0.1913291522080179</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04976250841785249</v>
+        <v>0.03241944233377914</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3683663970.619807</v>
+        <v>4688917305.997709</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06839861755479079</v>
+        <v>0.09952349843292752</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0405986753997671</v>
+        <v>0.03240594791147177</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4890184446.810878</v>
+        <v>3728530280.077009</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1459575022219287</v>
+        <v>0.1859119345677635</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02603542907082744</v>
+        <v>0.0259257401357501</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5767449998.029793</v>
+        <v>3629048127.564395</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1139819396164309</v>
+        <v>0.1546451772682405</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03066599542304338</v>
+        <v>0.01956885720179457</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4720274198.182116</v>
+        <v>4393995883.654257</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1225247236742069</v>
+        <v>0.1428683546196292</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04983866749475563</v>
+        <v>0.04225429100430476</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2869441341.421111</v>
+        <v>3145575029.969122</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08983433688669444</v>
+        <v>0.09211267920072341</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03898107811145656</v>
+        <v>0.03119727535141596</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5779008920.559969</v>
+        <v>5320463001.45397</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1489500018768026</v>
+        <v>0.1604174652538512</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03232462595250889</v>
+        <v>0.03629290371700052</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,16 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2253657199.016065</v>
+        <v>2018562415.046564</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1531252525233075</v>
+        <v>0.1481311004022125</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04663801624642366</v>
+        <v>0.04413534664142453</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3381174769.524164</v>
+        <v>2619987218.575432</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09445896397121861</v>
+        <v>0.07252743417518011</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04132465272362552</v>
+        <v>0.04125238193470098</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3707586363.479365</v>
+        <v>5511206104.369276</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1122683671791307</v>
+        <v>0.1487274468249582</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03051088673695504</v>
+        <v>0.03385516102632252</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1383219827.04766</v>
+        <v>1896312710.846748</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06744812551695262</v>
+        <v>0.07542419805340017</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04482175249142171</v>
+        <v>0.0457039763881933</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2166706142.0541</v>
+        <v>3475138422.596515</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1054594347879852</v>
+        <v>0.0724314905421314</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0517398853825259</v>
+        <v>0.03381980106801408</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3301073077.808619</v>
+        <v>2447902847.748095</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1171193328809832</v>
+        <v>0.1318418925589486</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02576690281944135</v>
+        <v>0.02299075056727954</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2007896893.861131</v>
+        <v>2377844778.865793</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1017477005255919</v>
+        <v>0.1084507391640224</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02386495761323723</v>
+        <v>0.02462230712467319</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3929604710.894545</v>
+        <v>4859294293.45006</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1120126275307838</v>
+        <v>0.1077166116073556</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02545170492341526</v>
+        <v>0.02365937591468958</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1540153227.033364</v>
+        <v>2254967863.31394</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1303556073678702</v>
+        <v>0.1688187109440107</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02881503400295985</v>
+        <v>0.02809246646397874</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4640833866.924805</v>
+        <v>4663470485.343346</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1169117215723856</v>
+        <v>0.1316233484510053</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05232092615356372</v>
+        <v>0.03814224359846188</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1375636147.259617</v>
+        <v>1271881060.932419</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1093589651690319</v>
+        <v>0.1317286246261624</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02923864236966018</v>
+        <v>0.0320928296328375</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3616353731.844258</v>
+        <v>4354406568.236942</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07639899861782919</v>
+        <v>0.1078984660991922</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03307190282534193</v>
+        <v>0.03056081873923451</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3805422864.291444</v>
+        <v>4371826148.358144</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08572589072814267</v>
+        <v>0.125559555924306</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02162916518784192</v>
+        <v>0.03052999181308596</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4783430801.064988</v>
+        <v>4795191188.09344</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2057931147923879</v>
+        <v>0.1859796206603019</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01968713756596946</v>
+        <v>0.02634327521016978</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2255212697.003118</v>
+        <v>2410449194.504279</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1468425559604211</v>
+        <v>0.09852147788919192</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03902454743420659</v>
+        <v>0.04478939652042947</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1740020458.151428</v>
+        <v>1749255201.216921</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09520614623691112</v>
+        <v>0.1210188276070221</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03942131571722844</v>
+        <v>0.04276852667612985</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2884541373.264969</v>
+        <v>3011228036.545006</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1359667342786278</v>
+        <v>0.1182771565462221</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03726812110450486</v>
+        <v>0.04460788908364619</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2440174699.085139</v>
+        <v>2537207390.06571</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1287230494819535</v>
+        <v>0.1306558113907458</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02535891884162458</v>
+        <v>0.02045365730878186</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1235985026.529685</v>
+        <v>1042389084.016266</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1284877917249908</v>
+        <v>0.1589758331748252</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03906304618400033</v>
+        <v>0.04436010299071737</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3147592875.320338</v>
+        <v>3000597534.124536</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1228431583961501</v>
+        <v>0.1096161309321837</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02429111909975736</v>
+        <v>0.03517823393924253</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3505625673.20417</v>
+        <v>2903795260.797124</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1262344387146159</v>
+        <v>0.1155984738598071</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03864144317070222</v>
+        <v>0.03986528736773539</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1881656807.045081</v>
+        <v>1602016407.8944</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09121087293553795</v>
+        <v>0.08749217004031271</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03837457735076356</v>
+        <v>0.0431311393147769</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2012647809.359869</v>
+        <v>1735146100.257015</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1610646862549856</v>
+        <v>0.1396380173561626</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04242025639290631</v>
+        <v>0.05625530432553083</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2736335362.427344</v>
+        <v>2999196836.48604</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09456604134072169</v>
+        <v>0.09829840693927089</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03139735607582069</v>
+        <v>0.04371635896158403</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4888982736.267129</v>
+        <v>3677677318.72271</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1204680828908485</v>
+        <v>0.1309151055381103</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04838567708630637</v>
+        <v>0.04575303571649573</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1573241097.173865</v>
+        <v>2181261205.203403</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1302786988758843</v>
+        <v>0.1064777699868935</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03271673045571234</v>
+        <v>0.02805137811767439</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2278442608.147669</v>
+        <v>2528737414.565337</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1165498170386669</v>
+        <v>0.08475230015744094</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0500082953025372</v>
+        <v>0.04833708193506437</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1720327946.265025</v>
+        <v>1748835608.626873</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1231193551214284</v>
+        <v>0.1090914253126843</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03003194567960461</v>
+        <v>0.03255530300567163</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4991716917.345085</v>
+        <v>3732647640.273303</v>
       </c>
       <c r="F97" t="n">
-        <v>0.134922689636383</v>
+        <v>0.1700105872467353</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02921461049668163</v>
+        <v>0.02076935755057534</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3874166632.631068</v>
+        <v>3187280567.888689</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1179129749143931</v>
+        <v>0.09601584903229329</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03039453593051049</v>
+        <v>0.03083438138782971</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2337973428.06393</v>
+        <v>2977783227.311678</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1166436168459809</v>
+        <v>0.1337649551700035</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02263899276005912</v>
+        <v>0.03443374842389537</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3894236412.426042</v>
+        <v>4629056357.547869</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1764198396251968</v>
+        <v>0.1469271118556466</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02594226680658448</v>
+        <v>0.01794485353917012</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2416595495.05727</v>
+        <v>3536977776.578927</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1952192112446332</v>
+        <v>0.2156415585859548</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04098673974433373</v>
+        <v>0.04582289572838113</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_356.xlsx
+++ b/output/fit_clients/fit_round_356.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1981602704.136529</v>
+        <v>2524320765.141533</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08812598149231395</v>
+        <v>0.1067753368476774</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03672387963290559</v>
+        <v>0.03467236356174087</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2371985524.021127</v>
+        <v>2490867421.19751</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1707724903215865</v>
+        <v>0.1188439228284991</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04787836449825122</v>
+        <v>0.0345763859174096</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4983836145.945263</v>
+        <v>4566047427.520625</v>
       </c>
       <c r="F4" t="n">
-        <v>0.123224055991258</v>
+        <v>0.1394783414228214</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02605825972641451</v>
+        <v>0.033144772688079</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>184</v>
+      </c>
+      <c r="J4" t="n">
+        <v>355</v>
+      </c>
+      <c r="K4" t="n">
+        <v>61.3472934069921</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3948994071.236539</v>
+        <v>3411904097.583079</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0801915251426813</v>
+        <v>0.08529382273839621</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03817879310823825</v>
+        <v>0.04571442101038157</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>142</v>
+      </c>
+      <c r="J5" t="n">
+        <v>352</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2856932239.947421</v>
+        <v>1777293119.214781</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1180942948268907</v>
+        <v>0.1252271156878246</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04537713997632546</v>
+        <v>0.04890873424328017</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2246660321.972398</v>
+        <v>2051690601.601721</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06866022042740537</v>
+        <v>0.1004716286098894</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03545288681920813</v>
+        <v>0.03481324820874809</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3219886814.878512</v>
+        <v>2594404708.277129</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1496474115195462</v>
+        <v>0.1870586845478862</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02115337970998069</v>
+        <v>0.02678982654639924</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>94</v>
+      </c>
+      <c r="J8" t="n">
+        <v>354</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2161394508.022835</v>
+        <v>1792828450.584071</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1727834658798522</v>
+        <v>0.164943134267012</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02716592362738793</v>
+        <v>0.0237064397339602</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4875897788.484233</v>
+        <v>3826779672.286085</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1842565606247936</v>
+        <v>0.2137985126880439</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03646778646348895</v>
+        <v>0.04611898589621748</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>299</v>
+      </c>
+      <c r="J10" t="n">
+        <v>355</v>
+      </c>
+      <c r="K10" t="n">
+        <v>60.69525665435219</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3925839309.672327</v>
+        <v>3149750624.752247</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1509876348527321</v>
+        <v>0.1196708216596098</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03010591572308361</v>
+        <v>0.04622748501789356</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>147</v>
+      </c>
+      <c r="J11" t="n">
+        <v>355</v>
+      </c>
+      <c r="K11" t="n">
+        <v>48.09185614385645</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2461140363.813091</v>
+        <v>3176527360.734551</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1924611209479318</v>
+        <v>0.1984748046089602</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0346620719548676</v>
+        <v>0.03707053541615352</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4497255296.037238</v>
+        <v>3362110657.933032</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08786628034886264</v>
+        <v>0.09483725610008188</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02327900142700879</v>
+        <v>0.02791785694706933</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>184</v>
+      </c>
+      <c r="J13" t="n">
+        <v>355</v>
+      </c>
+      <c r="K13" t="n">
+        <v>46.09994347474697</v>
       </c>
     </row>
     <row r="14">
@@ -822,16 +929,25 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3215599249.142647</v>
+        <v>3280954238.797291</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1172533755360701</v>
+        <v>0.1382244276998001</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03163950911926587</v>
+        <v>0.02881102718117753</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>74</v>
+      </c>
+      <c r="J14" t="n">
+        <v>355</v>
+      </c>
+      <c r="K14" t="n">
+        <v>58.58442577597278</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +960,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1235116161.601898</v>
+        <v>1709002678.525831</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1010445567002518</v>
+        <v>0.07904008998367905</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03158044967562136</v>
+        <v>0.04043889692679588</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +995,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2192902739.856184</v>
+        <v>2834490182.180565</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1101565762757098</v>
+        <v>0.1108171786437625</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04372597393123578</v>
+        <v>0.03481149182937931</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1030,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3390858233.469671</v>
+        <v>5299620162.90515</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1190352200714588</v>
+        <v>0.1686999264657397</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03862077848961028</v>
+        <v>0.04611944449076111</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>168</v>
+      </c>
+      <c r="J17" t="n">
+        <v>356</v>
+      </c>
+      <c r="K17" t="n">
+        <v>63.48674791771052</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1067,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3402997440.920758</v>
+        <v>3712616161.365059</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1601718999567881</v>
+        <v>0.1750373337236256</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03075012914411505</v>
+        <v>0.024475684329479</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>87</v>
+      </c>
+      <c r="J18" t="n">
+        <v>356</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1108,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1019565076.929735</v>
+        <v>1058417573.782564</v>
       </c>
       <c r="F19" t="n">
-        <v>0.155882537427402</v>
+        <v>0.1841819135140036</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0237725533096523</v>
+        <v>0.023263573093437</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1143,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2053742140.712308</v>
+        <v>2052678301.367682</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1456180440501049</v>
+        <v>0.1561493399328626</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01996145671244014</v>
+        <v>0.01993589662748126</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1172,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1823370054.630671</v>
+        <v>1767920496.917323</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0699295211344898</v>
+        <v>0.1004438657422124</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04440706036823005</v>
+        <v>0.03268116870919094</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1207,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3541174025.802082</v>
+        <v>3453002758.051921</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08765710093553301</v>
+        <v>0.1103911156140621</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0458292412561114</v>
+        <v>0.05328892298440269</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>97</v>
+      </c>
+      <c r="J22" t="n">
+        <v>355</v>
+      </c>
+      <c r="K22" t="n">
+        <v>57.03663638635734</v>
       </c>
     </row>
     <row r="23">
@@ -1074,17 +1250,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1346391832.669469</v>
+        <v>1136835803.435391</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1189763207529284</v>
+        <v>0.1252049386742038</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0456920239984259</v>
+        <v>0.05155899065604536</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1279,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3997932732.419034</v>
+        <v>3950820502.925178</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1412780961733777</v>
+        <v>0.0962250789645558</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02407298048988147</v>
+        <v>0.02262057374831175</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>107</v>
+      </c>
+      <c r="J24" t="n">
+        <v>356</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1314,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1136344039.174073</v>
+        <v>1051830401.700668</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08467799562972154</v>
+        <v>0.1119036344627257</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02207004525847004</v>
+        <v>0.01987041900954883</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1349,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1400409036.373367</v>
+        <v>1453721605.39903</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1118845901185776</v>
+        <v>0.1239033418740731</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0363968319325902</v>
+        <v>0.02728151673873568</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,16 +1390,25 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4090352925.163521</v>
+        <v>3044954941.425557</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1020712394053726</v>
+        <v>0.1438799553514882</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02533640447566051</v>
+        <v>0.02292141603440558</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>149</v>
+      </c>
+      <c r="J27" t="n">
+        <v>355</v>
+      </c>
+      <c r="K27" t="n">
+        <v>38.62590322944932</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1421,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2608967191.990942</v>
+        <v>2605441912.57368</v>
       </c>
       <c r="F28" t="n">
-        <v>0.105688089848782</v>
+        <v>0.121410689977231</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04457625270919978</v>
+        <v>0.04876269621303376</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>83</v>
+      </c>
+      <c r="J28" t="n">
+        <v>354</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1456,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5256287185.638912</v>
+        <v>3725451287.48349</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1247409472272278</v>
+        <v>0.1385421003163085</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03414113207645465</v>
+        <v>0.03478300084914061</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>316</v>
+      </c>
+      <c r="J29" t="n">
+        <v>355</v>
+      </c>
+      <c r="K29" t="n">
+        <v>56.14766040377592</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1499,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2087210269.879023</v>
+        <v>2141582705.77238</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1208632034308946</v>
+        <v>0.1148815966294218</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02428614886037902</v>
+        <v>0.03995697408426888</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1528,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1276820091.272219</v>
+        <v>1415646229.902369</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08169970835403371</v>
+        <v>0.09647495389102068</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04483194762573153</v>
+        <v>0.04282642044647895</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1569,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1473902228.079213</v>
+        <v>1667192647.906494</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1157761114577634</v>
+        <v>0.07586839123128898</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02802447087700626</v>
+        <v>0.02389768820396411</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1598,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2879018286.151511</v>
+        <v>2551106669.373045</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1942078280969865</v>
+        <v>0.19226170040298</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03972357851171091</v>
+        <v>0.04338908776451873</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1633,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1001950015.919735</v>
+        <v>1332364884.038876</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1120392691873368</v>
+        <v>0.0983260525593308</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02260814952367915</v>
+        <v>0.02824645008094686</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1674,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1234433281.01446</v>
+        <v>980392232.9013988</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1138944886314081</v>
+        <v>0.0881495633322476</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03565634801211203</v>
+        <v>0.0341021584038458</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1709,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2252808035.188731</v>
+        <v>2627219373.243248</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1613827977899963</v>
+        <v>0.1526727642198761</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02841380920711387</v>
+        <v>0.0193392944406147</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1738,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2185621471.861797</v>
+        <v>2327303645.079927</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1030709395514427</v>
+        <v>0.1025231279287596</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03812299938205915</v>
+        <v>0.03322393527718269</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1773,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1539438405.716705</v>
+        <v>1890134203.093662</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1032675121836533</v>
+        <v>0.1206891022008589</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0283925788348772</v>
+        <v>0.02511896679319722</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1808,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1717180701.564415</v>
+        <v>2031551426.119339</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1174969098511067</v>
+        <v>0.1438274740879182</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03188349719341871</v>
+        <v>0.024694887816657</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1843,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1525504271.682092</v>
+        <v>1783660691.974044</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1099534111619017</v>
+        <v>0.1427303935585603</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05665387719778859</v>
+        <v>0.0500253299298369</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1878,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2225214091.310324</v>
+        <v>2394395067.826191</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1193767162783352</v>
+        <v>0.1166532466143296</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04244474287746904</v>
+        <v>0.04694082434293726</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1913,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3127508144.707887</v>
+        <v>4226174523.046808</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0975298378059023</v>
+        <v>0.09520789223761857</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04061426205104204</v>
+        <v>0.03400890643241189</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>155</v>
+      </c>
+      <c r="J42" t="n">
+        <v>356</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1948,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2910924998.457675</v>
+        <v>2662981034.446053</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1374208060480907</v>
+        <v>0.1294884649147296</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01627043697804658</v>
+        <v>0.02388249622425935</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1983,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2168627666.733731</v>
+        <v>1985043832.003607</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0817513574042731</v>
+        <v>0.06560837462247508</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02335869584077242</v>
+        <v>0.02785225962595623</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2018,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1642582494.633986</v>
+        <v>2305692576.945028</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1380512469636681</v>
+        <v>0.1219552835359376</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04510256422946547</v>
+        <v>0.05097237797221538</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2053,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4637406611.930606</v>
+        <v>4151240457.958003</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1095494580644885</v>
+        <v>0.1523209740354241</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05352154724760112</v>
+        <v>0.04463966180587151</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>213</v>
+      </c>
+      <c r="J46" t="n">
+        <v>356</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2088,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3832432561.992902</v>
+        <v>3231181045.392821</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1240662133280818</v>
+        <v>0.1417499306948473</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05477448091016459</v>
+        <v>0.05634311588326953</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>159</v>
+      </c>
+      <c r="J47" t="n">
+        <v>355</v>
+      </c>
+      <c r="K47" t="n">
+        <v>39.27216569688844</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2125,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4109900233.573367</v>
+        <v>4733629762.108202</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07340689567974691</v>
+        <v>0.08404262792479493</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03320090931506293</v>
+        <v>0.03521096630171946</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>180</v>
+      </c>
+      <c r="J48" t="n">
+        <v>356</v>
+      </c>
+      <c r="K48" t="n">
+        <v>64.00736878926294</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2162,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1340341870.800828</v>
+        <v>1897490518.877931</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1724656939450551</v>
+        <v>0.1931984447767646</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03209731049523944</v>
+        <v>0.03497753660831901</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2197,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2605163791.715018</v>
+        <v>3848350274.114647</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1438815028201096</v>
+        <v>0.113362441444391</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04487957046652902</v>
+        <v>0.04303370662975957</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>117</v>
+      </c>
+      <c r="J50" t="n">
+        <v>356</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2232,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1378918367.731917</v>
+        <v>1274895280.702235</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1419309613927801</v>
+        <v>0.1911735416104251</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04209093354106668</v>
+        <v>0.04891291795833879</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2267,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4137553920.770247</v>
+        <v>5306216806.204754</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1080815558774706</v>
+        <v>0.1163350496514264</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0441292996390342</v>
+        <v>0.06170429570402552</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>212</v>
+      </c>
+      <c r="J52" t="n">
+        <v>355</v>
+      </c>
+      <c r="K52" t="n">
+        <v>60.83125173005912</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2304,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3201537622.955855</v>
+        <v>2988813535.319948</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1778686192227378</v>
+        <v>0.1873774261097078</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03071661968727284</v>
+        <v>0.02536380412923639</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>51</v>
+      </c>
+      <c r="J53" t="n">
+        <v>345</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2339,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4716518159.026384</v>
+        <v>4847176621.915457</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1022097540635405</v>
+        <v>0.1573618291844016</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0429222175702685</v>
+        <v>0.03272792530098402</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>188</v>
+      </c>
+      <c r="J54" t="n">
+        <v>356</v>
+      </c>
+      <c r="K54" t="n">
+        <v>63.79425951682043</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2376,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4268472146.803765</v>
+        <v>3800504738.456171</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1969659520038933</v>
+        <v>0.1562545728675059</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01982022471409923</v>
+        <v>0.02707548378137572</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>170</v>
+      </c>
+      <c r="J55" t="n">
+        <v>356</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2411,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1568994399.115692</v>
+        <v>1850749844.528524</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1035938115303467</v>
+        <v>0.135889692872436</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05025748614129551</v>
+        <v>0.03833827083479455</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2452,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4272835389.916674</v>
+        <v>4535066264.874901</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1646224988953548</v>
+        <v>0.1393978437427013</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01815933661298922</v>
+        <v>0.02481853000443615</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>147</v>
+      </c>
+      <c r="J57" t="n">
+        <v>356</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2481,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1632795510.226605</v>
+        <v>1548470853.190073</v>
       </c>
       <c r="F58" t="n">
-        <v>0.168478501118668</v>
+        <v>0.162430321483032</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03058925290695767</v>
+        <v>0.03955812475995951</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2516,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3757956053.262832</v>
+        <v>5207829854.800385</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1029465032479113</v>
+        <v>0.1216713588013242</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04331242761905239</v>
+        <v>0.04979882501852843</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>172</v>
+      </c>
+      <c r="J59" t="n">
+        <v>356</v>
+      </c>
+      <c r="K59" t="n">
+        <v>62.708355353972</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2553,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2623186397.640703</v>
+        <v>2775399002.180301</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1937301246993134</v>
+        <v>0.1794324534832627</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03322564272765745</v>
+        <v>0.03354396285445795</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>63</v>
+      </c>
+      <c r="J60" t="n">
+        <v>354</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2588,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2779227191.421284</v>
+        <v>2873912963.338691</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1354644437330021</v>
+        <v>0.1444813522162657</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03072615970865007</v>
+        <v>0.02283999027961941</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>314</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2629,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2083059197.927448</v>
+        <v>1294945545.905823</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1913291522080179</v>
+        <v>0.1799843422501452</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03241944233377914</v>
+        <v>0.04075303879445585</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2658,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4688917305.997709</v>
+        <v>4278988839.861262</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09952349843292752</v>
+        <v>0.09534051715154393</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03240594791147177</v>
+        <v>0.03487031595289587</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>175</v>
+      </c>
+      <c r="J63" t="n">
+        <v>355</v>
+      </c>
+      <c r="K63" t="n">
+        <v>59.26297076657622</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2695,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3728530280.077009</v>
+        <v>4387463216.154522</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1859119345677635</v>
+        <v>0.1498316798052514</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0259257401357501</v>
+        <v>0.02779998501793074</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>176</v>
+      </c>
+      <c r="J64" t="n">
+        <v>356</v>
+      </c>
+      <c r="K64" t="n">
+        <v>62.26525117500211</v>
       </c>
     </row>
     <row r="65">
@@ -2250,17 +2738,24 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3629048127.564395</v>
+        <v>4022314121.514388</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1546451772682405</v>
+        <v>0.1217926540619226</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01956885720179457</v>
+        <v>0.02191168311089245</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>272</v>
+      </c>
+      <c r="J65" t="n">
+        <v>356</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2767,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4393995883.654257</v>
+        <v>5393097806.438988</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1428683546196292</v>
+        <v>0.1538456935252719</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04225429100430476</v>
+        <v>0.05011689408012186</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>176</v>
+      </c>
+      <c r="J66" t="n">
+        <v>355</v>
+      </c>
+      <c r="K66" t="n">
+        <v>59.47928871574584</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2810,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3145575029.969122</v>
+        <v>2916977624.810805</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09211267920072341</v>
+        <v>0.07455623196995306</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03119727535141596</v>
+        <v>0.04046871480990927</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2839,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5320463001.45397</v>
+        <v>4509125680.81124</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1604174652538512</v>
+        <v>0.1520894473983138</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03629290371700052</v>
+        <v>0.0348108573535292</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>193</v>
+      </c>
+      <c r="J68" t="n">
+        <v>356</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2880,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2018562415.046564</v>
+        <v>1907982738.169797</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1481311004022125</v>
+        <v>0.1371156283909991</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04413534664142453</v>
+        <v>0.03951806831032511</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2909,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2619987218.575432</v>
+        <v>3184730135.968402</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07252743417518011</v>
+        <v>0.06656181497218029</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04125238193470098</v>
+        <v>0.03056071246998553</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>51</v>
+      </c>
+      <c r="J70" t="n">
+        <v>350</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2944,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5511206104.369276</v>
+        <v>3878983408.133427</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1487274468249582</v>
+        <v>0.1365872724289102</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03385516102632252</v>
+        <v>0.02343853817276535</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>259</v>
+      </c>
+      <c r="J71" t="n">
+        <v>355</v>
+      </c>
+      <c r="K71" t="n">
+        <v>62.07386273274807</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2987,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1896312710.846748</v>
+        <v>1642025863.593519</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07542419805340017</v>
+        <v>0.07363247544402898</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0457039763881933</v>
+        <v>0.03392683772218962</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3016,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3475138422.596515</v>
+        <v>3340629204.871379</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0724314905421314</v>
+        <v>0.08190729253001398</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03381980106801408</v>
+        <v>0.04462703175316794</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>25</v>
+      </c>
+      <c r="J73" t="n">
+        <v>346</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3057,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2447902847.748095</v>
+        <v>3916757433.917146</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1318418925589486</v>
+        <v>0.1198081955057879</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02299075056727954</v>
+        <v>0.0232613491808917</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>97</v>
+      </c>
+      <c r="J74" t="n">
+        <v>356</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3086,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2377844778.865793</v>
+        <v>2506629033.500988</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1084507391640224</v>
+        <v>0.1149270544711077</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02462230712467319</v>
+        <v>0.02345305948386511</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3127,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4859294293.45006</v>
+        <v>5037042181.553685</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1077166116073556</v>
+        <v>0.09062816009854711</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02365937591468958</v>
+        <v>0.03015848781080331</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>168</v>
+      </c>
+      <c r="J76" t="n">
+        <v>356</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3156,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2254967863.31394</v>
+        <v>1768983442.088002</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1688187109440107</v>
+        <v>0.1322983395121594</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02809246646397874</v>
+        <v>0.02438362636188002</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3191,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4663470485.343346</v>
+        <v>3837168127.08357</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1316233484510053</v>
+        <v>0.1107703882210783</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03814224359846188</v>
+        <v>0.05658448658787753</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>177</v>
+      </c>
+      <c r="J78" t="n">
+        <v>356</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3232,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1271881060.932419</v>
+        <v>1203668485.700114</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1317286246261624</v>
+        <v>0.1292055969309715</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0320928296328375</v>
+        <v>0.02496711070198794</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3261,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4354406568.236942</v>
+        <v>5357478992.039053</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1078984660991922</v>
+        <v>0.1113083751266046</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03056081873923451</v>
+        <v>0.02782372772502088</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>174</v>
+      </c>
+      <c r="J80" t="n">
+        <v>355</v>
+      </c>
+      <c r="K80" t="n">
+        <v>50.3473168857439</v>
       </c>
     </row>
     <row r="81">
@@ -2698,17 +3304,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4371826148.358144</v>
+        <v>3909311081.818662</v>
       </c>
       <c r="F81" t="n">
-        <v>0.125559555924306</v>
+        <v>0.1232076537077953</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03052999181308596</v>
+        <v>0.02320833700678068</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>164</v>
+      </c>
+      <c r="J81" t="n">
+        <v>356</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3333,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4795191188.09344</v>
+        <v>3673497647.698205</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1859796206603019</v>
+        <v>0.1384228433768587</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02634327521016978</v>
+        <v>0.02698177509804044</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>251</v>
+      </c>
+      <c r="J82" t="n">
+        <v>356</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2754,17 +3374,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2410449194.504279</v>
+        <v>2104535285.24603</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09852147788919192</v>
+        <v>0.09930900027265972</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04478939652042947</v>
+        <v>0.04462533588782917</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1749255201.216921</v>
+        <v>1789248476.574885</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1210188276070221</v>
+        <v>0.1129391831690568</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04276852667612985</v>
+        <v>0.05149111479835086</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3444,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3011228036.545006</v>
+        <v>2903557535.790067</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1182771565462221</v>
+        <v>0.182317128340631</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04460788908364619</v>
+        <v>0.03432165607239582</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>46</v>
+      </c>
+      <c r="J85" t="n">
+        <v>343</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3479,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2537207390.06571</v>
+        <v>1953137503.70902</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1306558113907458</v>
+        <v>0.1372304078627635</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02045365730878186</v>
+        <v>0.01822021671604582</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1042389084.016266</v>
+        <v>1077859627.389444</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1589758331748252</v>
+        <v>0.1529482086931941</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04436010299071737</v>
+        <v>0.02720129873896731</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3000597534.124536</v>
+        <v>3418912590.330189</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1096161309321837</v>
+        <v>0.1403720066628521</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03517823393924253</v>
+        <v>0.03457589058983675</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>46</v>
+      </c>
+      <c r="J88" t="n">
+        <v>331</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2903795260.797124</v>
+        <v>2438032987.75573</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1155984738598071</v>
+        <v>0.150333487559402</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03986528736773539</v>
+        <v>0.03380270463226996</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1602016407.8944</v>
+        <v>1432193296.335402</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08749217004031271</v>
+        <v>0.1195214115348765</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0431311393147769</v>
+        <v>0.03482009139512433</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1735146100.257015</v>
+        <v>1514553382.996936</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1396380173561626</v>
+        <v>0.1939180075019834</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05625530432553083</v>
+        <v>0.06023225968864539</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2999196836.48604</v>
+        <v>2274338599.218932</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09829840693927089</v>
+        <v>0.08487035535019456</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04371635896158403</v>
+        <v>0.03688340344474886</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3677677318.72271</v>
+        <v>3566254629.438122</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1309151055381103</v>
+        <v>0.126472140247231</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04575303571649573</v>
+        <v>0.03636991012711178</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>165</v>
+      </c>
+      <c r="J93" t="n">
+        <v>356</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2181261205.203403</v>
+        <v>2315817304.203614</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1064777699868935</v>
+        <v>0.1538757047588093</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02805137811767439</v>
+        <v>0.0415196640012943</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2528737414.565337</v>
+        <v>2218486675.198533</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08475230015744094</v>
+        <v>0.09286533388452069</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04833708193506437</v>
+        <v>0.04280275521978046</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1748835608.626873</v>
+        <v>2013182437.501086</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1090914253126843</v>
+        <v>0.1091862494213771</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03255530300567163</v>
+        <v>0.04523365575145306</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3732647640.273303</v>
+        <v>3612125440.446497</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1700105872467353</v>
+        <v>0.1731211570412287</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02076935755057534</v>
+        <v>0.0266270737175495</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>184</v>
+      </c>
+      <c r="J97" t="n">
+        <v>355</v>
+      </c>
+      <c r="K97" t="n">
+        <v>53.19990775456425</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3187280567.888689</v>
+        <v>2523179382.929197</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09601584903229329</v>
+        <v>0.08059796109636168</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03083438138782971</v>
+        <v>0.02800696574913999</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>88</v>
+      </c>
+      <c r="J98" t="n">
+        <v>350</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2977783227.311678</v>
+        <v>3269238843.436682</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1337649551700035</v>
+        <v>0.1177178014073247</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03443374842389537</v>
+        <v>0.02578817617364742</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>7</v>
+      </c>
+      <c r="J99" t="n">
+        <v>348</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4629056357.547869</v>
+        <v>3197727994.209266</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1469271118556466</v>
+        <v>0.1710139297130678</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01794485353917012</v>
+        <v>0.0245257382187484</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>161</v>
+      </c>
+      <c r="J100" t="n">
+        <v>354</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3536977776.578927</v>
+        <v>3103998509.528099</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2156415585859548</v>
+        <v>0.2056018300568279</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04582289572838113</v>
+        <v>0.0361788885635104</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>32</v>
+      </c>
+      <c r="J101" t="n">
+        <v>341</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
